--- a/biology/Botanique/Parc_André-Malraux/Parc_André-Malraux.xlsx
+++ b/biology/Botanique/Parc_André-Malraux/Parc_André-Malraux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_Andr%C3%A9-Malraux</t>
+          <t>Parc_André-Malraux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc André-Malraux est un espace vert situé dans l'est de Nanterre et propriété du département des Hauts-de-Seine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_Andr%C3%A9-Malraux</t>
+          <t>Parc_André-Malraux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début du XXe siècle, cet endroit, du mont Valérien et jusqu'à la Seine à l'ouest, est peu urbanisé. La plaine de Nanterre est surtout composée de jardins et cultures maraîchères, de prairies où paissent vaches et moutons.
 Dans les années 1950, de  nombreux travailleurs immigrés s'installent dans les lieux sans l'eau, ni sanitaires. Cette population représente 10 % de la population de la ville à l'époque.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_Andr%C3%A9-Malraux</t>
+          <t>Parc_André-Malraux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc comporte trois buttes coniques artificielles tronquées, dont on découvre depuis le sommet de jolis points de vue. Aujourd'hui, il est directement prolongé par les jardins de l'Arche. Le jardin de collection a une surface d'un peu près 5 000 m2 et comprend plus de 400 espèces plantées. 
 On y trouve un étang de deux hectares pour une superficie totale de 25 hectares au milieu de la ville de Nanterre. Il est composé de deux bassins reliés par un petit canal, dont les berges sont plantées de roseaux, joncs, plantes des marais. C'est une réserve ornithologique qui abrite entre autres des poules d'eau, foulques, canards, bernaches du Canada, hérons cendrés, ainsi que des corneilles noires, soit près de trente espèces. La pêche y est autorisée.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_Andr%C3%A9-Malraux</t>
+          <t>Parc_André-Malraux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Transport en commun</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gare de Nanterre-Préfecture de la ligne A du RER.</t>
         </is>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parc_Andr%C3%A9-Malraux</t>
+          <t>Parc_André-Malraux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,13 +629,15 @@
           <t>À proximité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le quartier de La Défense.
 La place Nelson-Mandela.
 Les tours Aillaud, dites aussi tours Nuage.
 Théâtre Nanterre-Amandiers
-Chapelle Saint-Joseph-des-Fontenelles de Nanterre construite dans les années 1930. Tout à côté, se trouvait également une Chapelle Saint-Joseph du parc André Malraux, construite en 1971[1].</t>
+Chapelle Saint-Joseph-des-Fontenelles de Nanterre construite dans les années 1930. Tout à côté, se trouvait également une Chapelle Saint-Joseph du parc André Malraux, construite en 1971.</t>
         </is>
       </c>
     </row>
